--- a/Data/Temp/Yearly-Report-2021-RO874232.xlsx
+++ b/Data/Temp/Yearly-Report-2021-RO874232.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <x:si>
     <x:t>746603</x:t>
   </x:si>
@@ -37,6 +37,60 @@
     <x:t>RON</x:t>
   </x:si>
   <x:si>
+    <x:t>574341</x:t>
+  </x:si>
+  <x:si>
+    <x:t>IT Support</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2017-02-12</x:t>
+  </x:si>
+  <x:si>
+    <x:t>201339</x:t>
+  </x:si>
+  <x:si>
+    <x:t>40267.8</x:t>
+  </x:si>
+  <x:si>
+    <x:t>241607</x:t>
+  </x:si>
+  <x:si>
+    <x:t>USD</x:t>
+  </x:si>
+  <x:si>
+    <x:t>544053</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2017-02-25</x:t>
+  </x:si>
+  <x:si>
+    <x:t>270366</x:t>
+  </x:si>
+  <x:si>
+    <x:t>54073.2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>324439</x:t>
+  </x:si>
+  <x:si>
+    <x:t>830988</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Various paper supplies</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2017-02-24</x:t>
+  </x:si>
+  <x:si>
+    <x:t>79397</x:t>
+  </x:si>
+  <x:si>
+    <x:t>15879.4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>95276.4</x:t>
+  </x:si>
+  <x:si>
     <x:t>802112</x:t>
   </x:si>
   <x:si>
@@ -55,15 +109,9 @@
     <x:t>352463</x:t>
   </x:si>
   <x:si>
-    <x:t>USD</x:t>
-  </x:si>
-  <x:si>
     <x:t>663958</x:t>
   </x:si>
   <x:si>
-    <x:t>Various paper supplies</x:t>
-  </x:si>
-  <x:si>
     <x:t>2017-05-09</x:t>
   </x:si>
   <x:si>
@@ -77,9 +125,6 @@
   </x:si>
   <x:si>
     <x:t>338442</x:t>
-  </x:si>
-  <x:si>
-    <x:t>IT Support</x:t>
   </x:si>
   <x:si>
     <x:t>2017-12-21</x:t>
@@ -502,19 +547,19 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="B3" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C3" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
-      <x:c r="C3" s="0" t="s">
+      <x:c r="D3" s="0" t="s">
         <x:v>16</x:v>
       </x:c>
-      <x:c r="D3" s="0" t="s">
+      <x:c r="E3" s="0" t="s">
         <x:v>17</x:v>
       </x:c>
-      <x:c r="E3" s="0" t="s">
+      <x:c r="F3" s="0" t="s">
         <x:v>18</x:v>
-      </x:c>
-      <x:c r="F3" s="0" t="s">
-        <x:v>19</x:v>
       </x:c>
       <x:c r="G3" s="0" t="s">
         <x:v>13</x:v>
@@ -522,25 +567,94 @@
     </x:row>
     <x:row r="4" spans="1:7">
       <x:c r="A4" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="B4" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
-      <x:c r="B4" s="0" t="s">
+      <x:c r="C4" s="0" t="s">
         <x:v>21</x:v>
       </x:c>
-      <x:c r="C4" s="0" t="s">
+      <x:c r="D4" s="0" t="s">
         <x:v>22</x:v>
       </x:c>
-      <x:c r="D4" s="0" t="s">
+      <x:c r="E4" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
-      <x:c r="E4" s="0" t="s">
+      <x:c r="F4" s="0" t="s">
         <x:v>24</x:v>
       </x:c>
-      <x:c r="F4" s="0" t="s">
+      <x:c r="G4" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:7">
+      <x:c r="A5" s="0" t="s">
         <x:v>25</x:v>
       </x:c>
-      <x:c r="G4" s="0" t="s">
+      <x:c r="B5" s="0" t="s">
         <x:v>26</x:v>
+      </x:c>
+      <x:c r="C5" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="D5" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="E5" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="F5" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="G5" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:7">
+      <x:c r="A6" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="B6" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="C6" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="D6" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="E6" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="F6" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="G6" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:7">
+      <x:c r="A7" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="B7" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="C7" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="D7" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="E7" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="F7" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="G7" s="0" t="s">
+        <x:v>41</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
